--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_71.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_71.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,720 +488,686 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_45</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>[['F:min', 'C:7', 'F:min']]</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
         <is>
           <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[(41.32, 48.94)]</t>
-        </is>
-      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.36, 5.0)]</t>
+          <t>[('0:00:09.260000', '0:00:13.900000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
+          <t>[('0:00:36.660000', '0:00:43.940000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
           <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_92</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2113636363636364</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1057579318448884</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'A']]</t>
+          <t>[['C:min', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(6.74, 12.16)]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(24.631133, 29.751133)]</t>
+          <t>[('0:00:01.129708', '0:00:06.125260'), ('0:00:13.648526', '0:00:21.125350')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:02.560000', '0:00:04.800000'), ('0:00:00.300000', '0:00:03.340000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2657342657342657</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(68.64, 83.84)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(19.14, 24.78)]</t>
+          <t>[('0:00:01.920000', '0:02:29.880000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:01.540000', '0:02:18.860000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_45</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1846153846153846</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(36.66, 43.94)]</t>
+          <t>[['E:7', 'A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58)]</t>
+          <t>[('0:00:23.040000', '0:00:32.800000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:39.580000', '0:00:48.900000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
           <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_175</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(93.0, 103.28)]</t>
+          <t>[['F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(97.94, 108.3)]</t>
+          <t>[('0:00:16.240000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:14.900000', '0:01:33.840000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_92</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.09807692307692308</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G#:min', 'D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['E:7', 'A', 'A']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(17.86, 28.3)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(6.76, 12.96)]</t>
+          <t>[('0:00:24.631133', '0:00:29.751133')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:06.120000', '0:00:11.620000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:7HTH1ppjkkOe7RLoBDKXYJ</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1120923913043478</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>isophonics_298</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.675</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(55.002834, 59.124376)]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(44.16, 46.66)]</t>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:00.344657', '0:00:11.337709')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_68</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min', 'G:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(11.5, 28.96)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(3.1, 7.72)]</t>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:08.740000', '0:00:23.220000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:7', 'A#:min'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
-        </is>
+          <t>isophonics_157</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_114</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4356060606060606</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
+          <t>[['B', 'E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(74.5, 80.42), (25.48, 32.8)]</t>
+          <t>[['B', 'E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46), (1.36, 4.74)]</t>
+          <t>[('0:00:27.840748', '0:00:44.245646')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:17.942016', '0:00:27.485418')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1087570621468927</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_87</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C', 'G', 'D']]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(59.224321, 65.737518)]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(9.236303, 12.162018)]</t>
+          <t>[('0:01:30.740000', '0:01:49.700000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>[('0:00:25', '0:00:35.520000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_67</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(26.2, 33.96), (80.2, 86.86)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(87.68, 98.02), (43.18, 45.1)]</t>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:00.300000', '0:00:10.760000'), ('0:01:26.280000', '0:01:35.680000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2666666666666667</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_174</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['D:min', 'A:(3,5,b7,b9)', 'D:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(21.02, 31.86)]</t>
+          <t>[['A#:min', 'F:(3,5,b7,b9)/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(7.8, 13.9)]</t>
+          <t>[('0:01:40.740000', '0:02:01.400000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:32.480000', '0:00:45.820000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_193</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_34</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(9.24, 28.04)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(5.78, 21.0)]</t>
+          <t>[('0:00:16.060000', '0:01:39.240000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:14.160000', '0:01:35.780000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_58</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_127</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_32</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(0.82, 6.76)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(37.96, 44.8)]</t>
+          <t>[('0:00:46.060000', '0:00:51.040000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:39.700000', '0:00:44.020000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[['A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/D#', 'F:7', 'A#:min', 'A:dim7', 'A#:min', 'A:dim7', 'F:maj/C', 'A#:min/C#', 'G#:maj/C', 'F#:maj/A#', 'C#:maj/G#', 'F#:maj', 'C#:maj/G#', 'G#:7', 'C#:maj', 'F#:maj/A#', 'F:min/C', 'C:7', 'F:min', 'E:dim7/G', 'F:min/G#', 'F:(3,5,b7,b9)/A', 'A#:min', 'A#:(3,5,b7,b9)', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A:dim7', 'C:hdim7/D#', 'A:dim7', 'C:hdim7/D#', 'F:(3,5,b7,b9)', 'A#:min', 'A#:(3,5,b7,b9)/D', 'D#:min', 'A#:min/F', 'F:(3,5,b7,b9)', 'A#:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(3.0, 5.28)]</t>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:09.700000', '0:01:02.320000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_266</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.08809523809523809</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'A/b7']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['B', 'B/7', 'B/6']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(36.173061, 41.86195)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(0.440395, 2.746326)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
